--- a/spreadsheets/Pantheon.xlsx
+++ b/spreadsheets/Pantheon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880A7E2F-4EBF-4FD9-8AA8-5DB70E0076CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDC07A5-359F-4DFD-B44E-CEA212E8608A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -50,9 +50,6 @@
     <t>contributor</t>
   </si>
   <si>
-    <t>Spear_Shot</t>
-  </si>
-  <si>
     <t>Aatrox</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>twitter</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>For socials, enter URLs for your desired links.</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>Akali</t>
   </si>
   <si>
-    <t>This match-up has to be played very cautiously. Stack up your passive and poke with your empowered Qs until you can commit to a full initiation. Akali can easily capitalise on your mistakes, so you have to play around your E well, using your E too early or too late will get you killed, especially if she is level 6. If she does end up hitting level 6 and you do not have a considerable lead, you are better off roaming and trying to get your team ahead.</t>
-  </si>
-  <si>
     <t>If you don't have a social, feel free to omit it.</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t>https://euw.op.gg/summoner/userName=Spear+Shot</t>
   </si>
   <si>
-    <t>This lane is slightly Pantheon favoured. Play around your Empowered Q, and if you have a bigger wave: W onto Camille as she uses her W (her sweep) and you should definitely win the trade. Hold your E for her E (hookshot), it is really easy to read and should negate her strong engage.</t>
-  </si>
-  <si>
     <t>10 should indicate an unplayable counter.</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
     <t>Darius</t>
   </si>
   <si>
-    <t>This match-up is heavily Pantheon favoured pre-6, play around poking with your Q and holding your W for when he charges his Q, so you land in the center of his Q where you take negligible damage, from here you can either E his W damage or hold your E for his next Q if it looks like the fight is going to drag out. If you do not have a lead by the time he is level 6 I would suggest looking for a roam, otherwise you have to play the fight perfectly to win (W when he Qs and hold your E for his R).</t>
-  </si>
-  <si>
     <t>If you have another link, add it to the bottom (for example, Facebook)</t>
   </si>
   <si>
@@ -179,9 +164,6 @@
     <t>Gnar</t>
   </si>
   <si>
-    <t>Try to keep harrassing him while he is in small Gnar, you should look for an engage as often as you can while he is in small form. When he is close to, or in, Mega Gnar make sure to play safe and wait for it to run out, however if he does manage to engage you, soak up his kit with your E and then look for a fight.</t>
-  </si>
-  <si>
     <t>If there is a champion not listed, feel free to add them to the bottom.</t>
   </si>
   <si>
@@ -278,9 +260,6 @@
     <t>Mordekaiser</t>
   </si>
   <si>
-    <t>This match-up is heavily Mordekaiser favoured, your best chance is looking to trade with him pre-6 and soaking up his passive with your empowered E. If you cannot get a kill pre-6, DO NOT try to fight him anymore, waiting for a gank often will not work either, you are better off taking Teleport and looking for rotations at 6, try to get another lane ahead since he will outscale you too.</t>
-  </si>
-  <si>
     <t>Nasus</t>
   </si>
   <si>
@@ -290,9 +269,6 @@
     <t>Olaf</t>
   </si>
   <si>
-    <t>This match up is Pantheon favoured pre-6, however once Olaf hits 6 you will have to play it super safe. Try to avoid his Qs and play from a distance when he has his R up. Look for roams on mid over bot if you are not taking Teleport, since you need to be able to get back to your lane ASAP, because Olaf can burn though towers.</t>
-  </si>
-  <si>
     <t>Ornn</t>
   </si>
   <si>
@@ -314,9 +290,6 @@
     <t>Renekton</t>
   </si>
   <si>
-    <t>This is Pantheon favoured pre-6, however once Renekton does get his ult, you are better off playing the lane extremely safe and waiting for a Jungle gank. Pre-6 poke him and zone him off the wave until he is low enough to engage, post-6 play safe, and either look for a roam or wait for a jungle gank.</t>
-  </si>
-  <si>
     <t>Rengar</t>
   </si>
   <si>
@@ -344,9 +317,6 @@
     <t>Shen</t>
   </si>
   <si>
-    <t>Shen is a weak duelling champion, although you cannot take his Q-autos for granted. Make sure to poke him throughout the lane and engage him when he is low enough to kill. When you are looking for roams, keep in mind that Shen can easily counter your Ult with his.</t>
-  </si>
-  <si>
     <t>Singed</t>
   </si>
   <si>
@@ -411,13 +381,40 @@
   </si>
   <si>
     <t>I would suggest running Teleport against Yorick, he is easy to abuse pre-6, just hold your W for when he uses his wall and W onto him to get out. Although, once he hits 6 it will be considerably more difficult to fight, just avoid fighting him 1 on 1 and either look for a roam and TP back to lane or wait for assistance from your team. The TP comes in very handy when he starts split-pushing later on in the game.</t>
+  </si>
+  <si>
+    <t>Spear Shot</t>
+  </si>
+  <si>
+    <t>This match-up has to be played very cautiously. Stack up your passive and poke with your empowered Qs until you can commit to a full initiation. Akali can easily capitalize on your mistakes, so you have to play around your E well, using your E too early or too late will get you killed, especially if she is level 6. If she does end up hitting level 6 and you do not have a considerable lead, you are better off roaming and trying to get your team ahead.</t>
+  </si>
+  <si>
+    <t>This lane is slightly Pantheon favored. Play around your Empowered Q, and if you have a bigger wave: W onto Camille as she uses her W (her sweep) and you should definitely win the trade. Hold your E for her E (hookshot), it is really easy to read and should negate her strong engage.</t>
+  </si>
+  <si>
+    <t>This match-up is heavily Pantheon favored pre-6, play around poking with your Q and holding your W for when he charges his Q, so you land in the center of his Q where you take negligible damage, from here you can either E his W damage or hold your E for his next Q if it looks like the fight is going to drag out. If you do not have a lead by the time he is level 6 I would suggest looking for a roam, otherwise you have to play the fight perfectly to win (W when he Qs and hold your E for his R).</t>
+  </si>
+  <si>
+    <t>Try to keep harassing him while he is in small Gnar, you should look for an engage as often as you can while he is in small form. When he is close to, or in, Mega Gnar make sure to play safe and wait for it to run out, however if he does manage to engage you, soak up his kit with your E and then look for a fight.</t>
+  </si>
+  <si>
+    <t>This match-up is heavily Mordekaiser favored, your best chance is looking to trade with him pre-6 and soaking up his passive with your empowered E. If you cannot get a kill pre-6, DO NOT try to fight him anymore, waiting for a gank often will not work either, you are better off taking Teleport and looking for rotations at 6, try to get another lane ahead since he will outscale you too.</t>
+  </si>
+  <si>
+    <t>This match up is Pantheon favored pre-6, however once Olaf hits 6 you will have to play it super safe. Try to avoid his Qs and play from a distance when he has his R up. Look for roams on mid over bot if you are not taking Teleport, since you need to be able to get back to your lane ASAP, because Olaf can burn though towers.</t>
+  </si>
+  <si>
+    <t>This is Pantheon favored pre-6, however once Renekton does get his ult, you are better off playing the lane extremely safe and waiting for a Jungle gank. Pre-6 poke him and zone him off the wave until he is low enough to engage, post-6 play safe, and either look for a roam or wait for a jungle gank.</t>
+  </si>
+  <si>
+    <t>Shen is a weak dueling champion, although you cannot take his Q-autos for granted. Make sure to poke him throughout the lane and engage him when he is low enough to kill. When you are looking for roams, keep in mind that Shen can easily counter your Ult with his.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,14 +432,37 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,13 +485,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,13 +787,13 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="78.625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="26" width="7.625" customWidth="1"/>
@@ -801,104 +825,102 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+      <c r="B3" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1898,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1911,515 +1933,515 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="8">
+        <v>6</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="7">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="C16" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="7">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="C20" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="7">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="8">
+        <v>8</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="7">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="C23" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="7">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="C24" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="8">
+        <v>7</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="7">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="7">
+        <v>7</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="7">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="7">
+        <v>9</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="7">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="7">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="7">
+        <v>6</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="8">
+        <v>5</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="C40" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="8">
+        <v>4</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="7">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="C43" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="7">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="4">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="3">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="3">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="3">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="4">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="3">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="3">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="4">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="3">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="3">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" s="3">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="4">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="3">
-        <v>9</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="3">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="3">
-        <v>3</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="3">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="3">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="3">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="3">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="3">
-        <v>3</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="4">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="C44" s="7" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="3">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="4">
-        <v>4</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="4">
-        <v>2</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="3">
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="3">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3379,6 +3401,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>